--- a/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
+++ b/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-mexico\InputData\hydgn\SoHPCCbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A2DD0-3A6E-49DF-9F0E-7A230114D7FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="SoHPCCbRIC" sheetId="2" r:id="rId3"/>
+    <sheet name="Pre ISIC Consolidation" sheetId="4" r:id="rId3"/>
+    <sheet name="SoHPCCbRIC" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="CEPCIinflator">Data!$C$11</definedName>
     <definedName name="CPIinflator">Data!$C$12</definedName>
     <definedName name="CurrentYear">Data!$C$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="151">
   <si>
     <t>ISIC 01T03</t>
   </si>
@@ -481,12 +481,24 @@
   </si>
   <si>
     <t>Water and waste</t>
+  </si>
+  <si>
+    <t>EU ISIC Consolidation</t>
+  </si>
+  <si>
+    <t>Default EPS ISIC Groupings</t>
+  </si>
+  <si>
+    <t>Hydrogen Capital Costs</t>
+  </si>
+  <si>
+    <t>Mexico ISIC Groupings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -581,7 +593,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,6 +636,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -1109,7 +1127,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1259,6 +1277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1848,22 +1867,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="65.140625" customWidth="1"/>
+    <col min="2" max="2" width="65.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1871,136 +1890,136 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="43">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="43">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="43">
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" s="42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B22" s="45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B21" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2008,22 +2027,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="99.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L10" s="48">
         <v>68084000</v>
       </c>
@@ -2031,10 +2050,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L11" s="48"/>
     </row>
-    <row r="12" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L12" s="48">
         <v>49148000</v>
       </c>
@@ -2042,16 +2061,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L13" s="48"/>
     </row>
-    <row r="14" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L14" s="48"/>
     </row>
-    <row r="15" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L16" s="48">
         <v>3658000</v>
       </c>
@@ -2059,10 +2078,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L18" s="48">
         <v>21570000</v>
       </c>
@@ -2070,13 +2089,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L21" s="48">
         <v>28492000</v>
       </c>
@@ -2084,97 +2103,97 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:14" ht="21.4" x14ac:dyDescent="0.8">
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-    </row>
-    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+    </row>
+    <row r="35" spans="2:14" ht="15.4" x14ac:dyDescent="0.45">
       <c r="C35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-    </row>
-    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.4" x14ac:dyDescent="0.45">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5">
         <v>50000</v>
       </c>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="58"/>
-    </row>
-    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="59" t="s">
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
+    </row>
+    <row r="39" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D39" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B40" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="7">
         <v>2012</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="62"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D40" s="61"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="63"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B41" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="8">
         <v>2010</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="65"/>
-    </row>
-    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="64"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
+    </row>
+    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="9">
         <v>0.94218268901813196</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="66"/>
       <c r="M42" t="s">
         <v>0</v>
       </c>
@@ -2182,20 +2201,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="10">
         <v>1.100724186648488</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="55"/>
       <c r="M43" t="s">
         <v>129</v>
       </c>
@@ -2203,7 +2222,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M44" t="s">
         <v>131</v>
       </c>
@@ -2211,7 +2230,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" ht="16.149999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="11" t="s">
         <v>113</v>
       </c>
@@ -2228,7 +2247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="14" t="s">
         <v>45</v>
       </c>
@@ -2257,7 +2276,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B47" s="18" t="s">
         <v>49</v>
       </c>
@@ -2289,7 +2308,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B48" s="24" t="s">
         <v>50</v>
       </c>
@@ -2313,7 +2332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B49" s="29" t="s">
         <v>55</v>
       </c>
@@ -2345,7 +2364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B50" s="29" t="s">
         <v>56</v>
       </c>
@@ -2377,7 +2396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B51" s="29" t="s">
         <v>57</v>
       </c>
@@ -2409,7 +2428,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B52" s="29" t="s">
         <v>58</v>
       </c>
@@ -2441,7 +2460,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B53" s="29" t="s">
         <v>59</v>
       </c>
@@ -2473,7 +2492,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B54" s="29" t="s">
         <v>60</v>
       </c>
@@ -2505,7 +2524,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B55" s="29" t="s">
         <v>61</v>
       </c>
@@ -2537,7 +2556,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B56" s="29" t="s">
         <v>62</v>
       </c>
@@ -2569,7 +2588,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B57" s="29" t="s">
         <v>63</v>
       </c>
@@ -2601,7 +2620,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="30"/>
       <c r="C58" s="31">
         <v>101812500</v>
@@ -2629,7 +2648,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C59" s="36"/>
       <c r="M59" t="s">
         <v>9</v>
@@ -2638,7 +2657,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M60" t="s">
         <v>10</v>
       </c>
@@ -2646,7 +2665,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B61" s="37" t="s">
         <v>51</v>
       </c>
@@ -2660,7 +2679,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B62" s="38" t="s">
         <v>52</v>
       </c>
@@ -2674,7 +2693,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B63" s="38" t="s">
         <v>53</v>
       </c>
@@ -2688,7 +2707,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B64" s="37" t="s">
         <v>49</v>
       </c>
@@ -2702,7 +2721,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B65" s="37" t="s">
         <v>54</v>
       </c>
@@ -2716,7 +2735,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B66" s="41" t="s">
         <v>55</v>
       </c>
@@ -2730,7 +2749,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B67" s="41" t="s">
         <v>56</v>
       </c>
@@ -2744,7 +2763,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B68" s="41" t="s">
         <v>57</v>
       </c>
@@ -2758,7 +2777,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B69" s="41" t="s">
         <v>58</v>
       </c>
@@ -2772,7 +2791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B70" s="41" t="s">
         <v>59</v>
       </c>
@@ -2786,7 +2805,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B71" s="41" t="s">
         <v>60</v>
       </c>
@@ -2800,7 +2819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B72" s="41" t="s">
         <v>61</v>
       </c>
@@ -2814,7 +2833,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B73" s="41" t="s">
         <v>62</v>
       </c>
@@ -2828,7 +2847,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B74" s="41" t="s">
         <v>63</v>
       </c>
@@ -2842,7 +2861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M75" t="s">
         <v>22</v>
       </c>
@@ -2850,7 +2869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M76" t="s">
         <v>23</v>
       </c>
@@ -2858,7 +2877,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M77" t="s">
         <v>24</v>
       </c>
@@ -2866,7 +2885,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M78" t="s">
         <v>25</v>
       </c>
@@ -2874,7 +2893,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M79" t="s">
         <v>26</v>
       </c>
@@ -2882,7 +2901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M80" t="s">
         <v>27</v>
       </c>
@@ -2890,7 +2909,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="11:14" x14ac:dyDescent="0.45">
       <c r="M81" t="s">
         <v>28</v>
       </c>
@@ -2898,7 +2917,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="11:14" x14ac:dyDescent="0.45">
       <c r="M82" t="s">
         <v>29</v>
       </c>
@@ -2906,7 +2925,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="11:14" x14ac:dyDescent="0.45">
       <c r="M83" t="s">
         <v>30</v>
       </c>
@@ -2914,7 +2933,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K86" s="48">
         <v>1088450000</v>
       </c>
@@ -2922,7 +2941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K87" s="48">
         <v>483000000</v>
       </c>
@@ -2930,13 +2949,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K90" s="48">
         <v>87900000</v>
       </c>
@@ -2944,10 +2963,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K92" s="48">
         <v>250600000</v>
       </c>
@@ -2955,13 +2974,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K95" s="48">
         <v>191000000</v>
       </c>
@@ -2969,7 +2988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K98" s="47">
         <f>SUM(K86:K95)</f>
         <v>2100950000</v>
@@ -2986,7 +3005,7 @@
     <mergeCell ref="D42:H42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41">
       <formula1>1992</formula1>
       <formula2>2016</formula2>
     </dataValidation>
@@ -2997,23 +3016,1395 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:AQ11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A2" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="S2" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA2" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB2" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC2" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ2" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL2" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM2" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN2" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP2" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ2" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,B2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,C2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,D2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,E2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,F2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,G2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,H2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,I2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,J2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,K2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,L2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,M2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,N2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,O2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,P2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,Q2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,R2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,S2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,T2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,U2,Data!$J$47:$J$58)</f>
+        <v>0.20535714285714285</v>
+      </c>
+      <c r="V3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,V2,Data!$J$47:$J$58)</f>
+        <v>0.66964285714285687</v>
+      </c>
+      <c r="W3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,W2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,X2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,Y2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,Z2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AA2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AB2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AC2,Data!$J$47:$J$58)</f>
+        <v>0.12499999999999986</v>
+      </c>
+      <c r="AD3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AD2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AE2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AF2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AG2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AH2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AI2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AJ2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AK2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AL2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AM2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AN2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AO2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AP2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AQ2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!B2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!C2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!D2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!E2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!F2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!G2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!H2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!I2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!J2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!K2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!L2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!M2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!N2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!O2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!P2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!Q2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!R2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!S2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!T2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!U2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!V2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.41966165941316863</v>
+      </c>
+      <c r="W4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!W2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!X2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!Y2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!Z2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AA2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AB2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AC2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.41367167392016474</v>
+      </c>
+      <c r="AD4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AD2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AE2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AF2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AG2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AH2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AI2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AJ2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AK4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AK2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AL2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AM2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AN2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AO2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AP2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AQ2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,B2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,C2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,D2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,E2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,F2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,G2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,H2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,I2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,J2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,K2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,L2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,M2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,N2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,O2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,P2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,Q2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,R2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,S2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,T2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,U2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,V2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0.55991337252195439</v>
+      </c>
+      <c r="W5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,W2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,X2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,Y2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,Z2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AA2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AB2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AC2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0.34917537304552704</v>
+      </c>
+      <c r="AD5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AD2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AE2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AF2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AG2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AH2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AI2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AJ2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>9.0911254432518629E-2</v>
+      </c>
+      <c r="AK5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AK2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AL2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AM2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AN2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AO2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AP2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AQ2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="50">
+        <f t="shared" ref="B6:AQ6" si="0">B5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="50">
+        <f t="shared" si="0"/>
+        <v>0.55991337252195439</v>
+      </c>
+      <c r="W6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="50">
+        <f t="shared" si="0"/>
+        <v>0.34917537304552704</v>
+      </c>
+      <c r="AD6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="50">
+        <f t="shared" si="0"/>
+        <v>9.0911254432518629E-2</v>
+      </c>
+      <c r="AK6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="50">
+        <f t="shared" ref="B7:AQ7" si="1">B5</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="50">
+        <f t="shared" si="1"/>
+        <v>0.55991337252195439</v>
+      </c>
+      <c r="W7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="50">
+        <f t="shared" si="1"/>
+        <v>0.34917537304552704</v>
+      </c>
+      <c r="AD7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="50">
+        <f t="shared" si="1"/>
+        <v>9.0911254432518629E-2</v>
+      </c>
+      <c r="AK7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A9" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="52"/>
+      <c r="AQ9" s="52"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="S10" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA10" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB10" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD10" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE10" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG10" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH10" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI10" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ10" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK10" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL10" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM10" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN10" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP10" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ10" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q11" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="S11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="W11" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="X11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA11" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB11" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD11" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE11" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF11" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI11" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ11" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL11" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM11" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN11" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO11" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP11" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ11" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AQ6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="26" width="10.7109375" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" customWidth="1"/>
-    <col min="28" max="43" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="10.73046875" customWidth="1"/>
+    <col min="27" max="27" width="13.1328125" customWidth="1"/>
+    <col min="28" max="43" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A1" s="49" t="s">
         <v>124</v>
       </c>
@@ -3144,868 +4535,868 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,B1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
         <v>0</v>
       </c>
       <c r="C2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,C1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
         <v>0</v>
       </c>
       <c r="D2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,D1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
         <v>0</v>
       </c>
       <c r="E2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,E1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
         <v>0</v>
       </c>
       <c r="F2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,F1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
         <v>0</v>
       </c>
       <c r="G2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,G1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
         <v>0</v>
       </c>
       <c r="H2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,H1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
         <v>0</v>
       </c>
       <c r="I2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,I1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
         <v>0</v>
       </c>
       <c r="J2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,J1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
         <v>0</v>
       </c>
       <c r="K2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,K1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
         <v>0</v>
       </c>
       <c r="L2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,L1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
         <v>0</v>
       </c>
       <c r="M2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,M1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
         <v>0</v>
       </c>
       <c r="N2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,N1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
         <v>0</v>
       </c>
       <c r="O2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,O1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
         <v>0</v>
       </c>
       <c r="P2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,P1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,Q1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,R1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
         <v>0</v>
       </c>
       <c r="S2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,S1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
         <v>0</v>
       </c>
       <c r="T2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,T1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
         <v>0</v>
       </c>
       <c r="U2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,U1,Data!$J$47:$J$58)</f>
-        <v>0.20535714285714285</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
+        <v>0</v>
       </c>
       <c r="V2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,V1,Data!$J$47:$J$58)</f>
-        <v>0.66964285714285687</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
+        <v>0</v>
       </c>
       <c r="W2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,W1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
         <v>0</v>
       </c>
       <c r="X2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,X1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,Y1,Data!$J$47:$J$58)</f>
-        <v>0</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
+        <v>0.87499999999999978</v>
       </c>
       <c r="Z2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,Z1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AA1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AB1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AC1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
         <v>0.12499999999999986</v>
       </c>
       <c r="AD2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AD1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AE1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AF1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AG1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AH1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AI1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AJ1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AK1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AL1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AM1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AN1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AO1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AP1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AQ1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!B1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!C1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!D1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
         <v>0</v>
       </c>
       <c r="E3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!E1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
         <v>0</v>
       </c>
       <c r="F3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!F1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
         <v>0</v>
       </c>
       <c r="G3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!G1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
         <v>0</v>
       </c>
       <c r="H3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!H1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
         <v>0</v>
       </c>
       <c r="I3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!I1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
         <v>0</v>
       </c>
       <c r="J3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!J1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
         <v>0</v>
       </c>
       <c r="K3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!K1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
         <v>0</v>
       </c>
       <c r="L3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!L1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
         <v>0</v>
       </c>
       <c r="M3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!M1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
         <v>0</v>
       </c>
       <c r="N3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!N1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
         <v>0</v>
       </c>
       <c r="O3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!O1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
         <v>0</v>
       </c>
       <c r="P3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!P1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Q1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!R1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
         <v>0</v>
       </c>
       <c r="S3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!S1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
         <v>0</v>
       </c>
       <c r="T3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!T1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
         <v>0</v>
       </c>
       <c r="U3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!U1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
         <v>0</v>
       </c>
       <c r="V3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!V1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="50">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="50">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="50">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
         <v>0.41966165941316863</v>
       </c>
-      <c r="W3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!W1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!X1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Y1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
       <c r="Z3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Z1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AA1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AB1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AC1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
         <v>0.41367167392016474</v>
       </c>
       <c r="AD3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AD1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AE1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AF1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AG1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AH1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AI1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AJ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="AK3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AK1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AL1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AM1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AN1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AO1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AP1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AQ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,B1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
         <v>0</v>
       </c>
       <c r="C4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,C1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,D1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
         <v>0</v>
       </c>
       <c r="E4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,E1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
         <v>0</v>
       </c>
       <c r="F4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,F1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
         <v>0</v>
       </c>
       <c r="G4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,G1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
         <v>0</v>
       </c>
       <c r="H4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,H1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
         <v>0</v>
       </c>
       <c r="I4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,I1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
         <v>0</v>
       </c>
       <c r="J4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,J1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
         <v>0</v>
       </c>
       <c r="K4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,K1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
         <v>0</v>
       </c>
       <c r="L4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,L1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
         <v>0</v>
       </c>
       <c r="M4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,M1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
         <v>0</v>
       </c>
       <c r="N4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,N1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
         <v>0</v>
       </c>
       <c r="O4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,O1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
         <v>0</v>
       </c>
       <c r="P4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,P1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Q1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,R1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
         <v>0</v>
       </c>
       <c r="S4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,S1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
         <v>0</v>
       </c>
       <c r="T4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,T1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
         <v>0</v>
       </c>
       <c r="U4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,U1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
         <v>0</v>
       </c>
       <c r="V4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,V1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="50">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="50">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="50">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
         <v>0.55991337252195439</v>
       </c>
-      <c r="W4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,W1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,X1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Y1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
       <c r="Z4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Z1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AA1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AB1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AC1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
         <v>0.34917537304552704</v>
       </c>
       <c r="AD4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AD1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AE1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AF1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AG1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AH1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AI1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AJ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
         <v>9.0911254432518629E-2</v>
       </c>
       <c r="AK4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AK1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AL1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AM1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AN1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AO1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AP1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AQ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="50">
-        <f>B4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
         <v>0</v>
       </c>
       <c r="C5" s="50">
-        <f t="shared" ref="C5:AQ5" si="0">C4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="50">
-        <f t="shared" ref="D5" si="1">D4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
         <v>0</v>
       </c>
       <c r="E5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
         <v>0</v>
       </c>
       <c r="F5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
         <v>0</v>
       </c>
       <c r="G5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
         <v>0</v>
       </c>
       <c r="H5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
         <v>0</v>
       </c>
       <c r="I5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
         <v>0</v>
       </c>
       <c r="J5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
         <v>0</v>
       </c>
       <c r="K5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
         <v>0</v>
       </c>
       <c r="L5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
         <v>0</v>
       </c>
       <c r="M5" s="50">
-        <f t="shared" ref="M5" si="2">M4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
         <v>0</v>
       </c>
       <c r="N5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
         <v>0</v>
       </c>
       <c r="O5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
         <v>0</v>
       </c>
       <c r="P5" s="50">
-        <f t="shared" ref="P5" si="3">P4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R5" s="50">
-        <f t="shared" ref="R5" si="4">R4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
         <v>0</v>
       </c>
       <c r="S5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
         <v>0</v>
       </c>
       <c r="T5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
         <v>0</v>
       </c>
       <c r="U5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
         <v>0</v>
       </c>
       <c r="V5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="50">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="50">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="50">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
         <v>0.55991337252195439</v>
       </c>
-      <c r="W5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Z5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA5" s="50">
-        <f t="shared" ref="AA5:AB5" si="5">AA4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB5" s="50">
-        <f t="shared" si="5"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
         <v>0.34917537304552704</v>
       </c>
       <c r="AD5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
         <v>9.0911254432518629E-2</v>
       </c>
       <c r="AK5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="50">
-        <f>B4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
         <v>0</v>
       </c>
       <c r="C6" s="50">
-        <f t="shared" ref="C6:AQ6" si="6">C4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="50">
-        <f t="shared" ref="D6" si="7">D4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
         <v>0</v>
       </c>
       <c r="E6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
         <v>0</v>
       </c>
       <c r="F6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
         <v>0</v>
       </c>
       <c r="G6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
         <v>0</v>
       </c>
       <c r="H6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
         <v>0</v>
       </c>
       <c r="I6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
         <v>0</v>
       </c>
       <c r="J6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
         <v>0</v>
       </c>
       <c r="K6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
         <v>0</v>
       </c>
       <c r="L6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
         <v>0</v>
       </c>
       <c r="M6" s="50">
-        <f t="shared" ref="M6" si="8">M4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
         <v>0</v>
       </c>
       <c r="N6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
         <v>0</v>
       </c>
       <c r="O6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
         <v>0</v>
       </c>
       <c r="P6" s="50">
-        <f t="shared" ref="P6" si="9">P4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R6" s="50">
-        <f t="shared" ref="R6" si="10">R4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
         <v>0</v>
       </c>
       <c r="S6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
         <v>0</v>
       </c>
       <c r="T6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
         <v>0</v>
       </c>
       <c r="U6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
         <v>0</v>
       </c>
       <c r="V6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="50">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="50">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="50">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
         <v>0.55991337252195439</v>
       </c>
-      <c r="W6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="Z6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA6" s="50">
-        <f t="shared" ref="AA6:AB6" si="11">AA4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB6" s="50">
-        <f t="shared" si="11"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
         <v>0.34917537304552704</v>
       </c>
       <c r="AD6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
         <v>9.0911254432518629E-2</v>
       </c>
       <c r="AK6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
